--- a/03_Outputs/Consolidada/04_Cluster/Summary_Stats.xlsx
+++ b/03_Outputs/Consolidada/04_Cluster/Summary_Stats.xlsx
@@ -412,7 +412,7 @@
         <v>-1.009293658750142E-17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
         <v>-2.425997880485935</v>
@@ -439,7 +439,7 @@
         <v>-1.312081756375185E-16</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F3">
         <v>-1.464746934498695</v>
@@ -493,7 +493,7 @@
         <v>-2.119516683375299E-16</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
         <v>-2.245325559812697</v>
@@ -520,7 +520,7 @@
         <v>7.569702440626068E-17</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F6">
         <v>-1.429764574405501</v>
@@ -709,7 +709,7 @@
         <v>1.009293658750142E-16</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>-1.619918890964007</v>
@@ -736,7 +736,7 @@
         <v>2.119516683375299E-16</v>
       </c>
       <c r="E14">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F14">
         <v>-2.2190116646</v>
@@ -1060,7 +1060,7 @@
         <v>3.027880976250427E-17</v>
       </c>
       <c r="E26">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>-2.064829789047005</v>
@@ -1168,7 +1168,7 @@
         <v>6.055761952500853E-17</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F30">
         <v>-1.813834765996074</v>
